--- a/Auswertung-MR/T1T2-Zeiten.xlsx
+++ b/Auswertung-MR/T1T2-Zeiten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Documents\Uni\6 Semester\FP1\Kernspin\Bericht\EFNMR-Remote\Auswertung-MR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159AC492-F8BF-42A8-B15D-B63F0C2DD6B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC32B12-B194-4A00-8D2A-DC1CBFF19736}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{A3CF1ACE-D739-42DC-9CD4-6918666B986E}"/>
+    <workbookView xWindow="53220" yWindow="7695" windowWidth="15390" windowHeight="9645" xr2:uid="{A3CF1ACE-D739-42DC-9CD4-6918666B986E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Relaxationszeiten</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Cu2  2000</t>
+  </si>
+  <si>
+    <t>Konzentration</t>
   </si>
 </sst>
 </file>
@@ -433,15 +436,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317E1452-D344-4788-8BB8-D10CA50AF815}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,8 +460,11 @@
       <c r="G1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -474,8 +480,24 @@
       <c r="G2">
         <v>2.5290000000000002E-4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I2">
+        <f>D2</f>
+        <v>1394.84</v>
+      </c>
+      <c r="J2">
+        <f>250*10^(-6)</f>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="K2">
+        <f>F2</f>
+        <v>1215.51</v>
+      </c>
+      <c r="L2">
+        <f>J2</f>
+        <v>2.5000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -491,8 +513,24 @@
       <c r="G3">
         <v>2.6209999999999997E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I3">
+        <f t="shared" ref="I3:I15" si="0">D3</f>
+        <v>1003.4</v>
+      </c>
+      <c r="J3">
+        <f>500*10^(-6)</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K5" si="1">F3</f>
+        <v>1066.44</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L15" si="2">J3</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>5</v>
       </c>
@@ -508,8 +546,24 @@
       <c r="G4">
         <v>1.9369999999999999E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>646.84900000000005</v>
+      </c>
+      <c r="J4">
+        <f>1000*10^(-6)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>748.404</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>13</v>
       </c>
@@ -525,8 +579,30 @@
       <c r="G5">
         <v>1.228E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>431.26799999999997</v>
+      </c>
+      <c r="J5">
+        <f>2000*10^(-6)</f>
+        <v>2E-3</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>341.83</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
         <v>1</v>
       </c>
@@ -540,7 +616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>8</v>
       </c>
@@ -556,8 +632,12 @@
       <c r="G8">
         <v>89.83</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>2199.46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
         <v>1</v>
       </c>
@@ -571,7 +651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>9</v>
       </c>
@@ -587,8 +667,24 @@
       <c r="G12">
         <v>1.2579999999999999E-4</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>1178.28</v>
+      </c>
+      <c r="J12">
+        <f>25*10^(-6)</f>
+        <v>2.4999999999999998E-5</v>
+      </c>
+      <c r="K12">
+        <f>F12</f>
+        <v>548.33699999999999</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>2.4999999999999998E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>10</v>
       </c>
@@ -605,8 +701,24 @@
         <f>8.179*10^(-5)</f>
         <v>8.1790000000000015E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>725.85699999999997</v>
+      </c>
+      <c r="J13">
+        <f>50*10^(-6)</f>
+        <v>4.9999999999999996E-5</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13:K15" si="3">F13</f>
+        <v>279.858</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>4.9999999999999996E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
         <v>11</v>
       </c>
@@ -622,8 +734,24 @@
       <c r="G14">
         <v>1.182E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>316.08499999999998</v>
+      </c>
+      <c r="J14">
+        <f>100*10^(-6)</f>
+        <v>9.9999999999999991E-5</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>170.99600000000001</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999991E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -639,6 +767,22 @@
       <c r="G15">
         <f>5.47*10^(-5)</f>
         <v>5.4700000000000001E-5</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>180.244</v>
+      </c>
+      <c r="J15">
+        <f>200*10^(-6)</f>
+        <v>1.9999999999999998E-4</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>69.151200000000003</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>1.9999999999999998E-4</v>
       </c>
     </row>
   </sheetData>

--- a/Auswertung-MR/T1T2-Zeiten.xlsx
+++ b/Auswertung-MR/T1T2-Zeiten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Documents\Uni\6 Semester\FP1\Kernspin\Bericht\EFNMR-Remote\Auswertung-MR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC32B12-B194-4A00-8D2A-DC1CBFF19736}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9352EDE3-F839-4DAD-81F4-1FBB4E5C521B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53220" yWindow="7695" windowWidth="15390" windowHeight="9645" xr2:uid="{A3CF1ACE-D739-42DC-9CD4-6918666B986E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{A3CF1ACE-D739-42DC-9CD4-6918666B986E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Relaxationszeiten</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t>Konzentration</t>
+  </si>
+  <si>
+    <t>Formel FP guide umgestellt</t>
+  </si>
+  <si>
+    <t>1/t1</t>
+  </si>
+  <si>
+    <t>1/t2</t>
   </si>
 </sst>
 </file>
@@ -436,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317E1452-D344-4788-8BB8-D10CA50AF815}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -460,6 +469,9 @@
       <c r="G1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
       <c r="J1" t="s">
         <v>14</v>
       </c>
@@ -782,6 +794,158 @@
       </c>
       <c r="L15">
         <f t="shared" si="2"/>
+        <v>1.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="D19">
+        <f>1/D2</f>
+        <v>7.1692810644948533E-4</v>
+      </c>
+      <c r="E19">
+        <f>J12</f>
+        <v>2.4999999999999998E-5</v>
+      </c>
+      <c r="F19">
+        <f>1/F2</f>
+        <v>8.2269993665210492E-4</v>
+      </c>
+      <c r="G19">
+        <f>L12</f>
+        <v>2.4999999999999998E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="D20">
+        <f t="shared" ref="D20:D33" si="4">1/D3</f>
+        <v>9.9661152082918089E-4</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:E32" si="5">J13</f>
+        <v>4.9999999999999996E-5</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ref="F20:F32" si="6">1/F3</f>
+        <v>9.3769926109298226E-4</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20:G22" si="7">L13</f>
+        <v>4.9999999999999996E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="D21">
+        <f t="shared" si="4"/>
+        <v>1.5459558567764654E-3</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="5"/>
+        <v>9.9999999999999991E-5</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="6"/>
+        <v>1.3361767173879348E-3</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999991E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="D22">
+        <f t="shared" si="4"/>
+        <v>2.3187437973603421E-3</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="5"/>
+        <v>1.9999999999999998E-4</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="6"/>
+        <v>2.9254307696808357E-3</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="7"/>
+        <v>1.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="D29">
+        <f t="shared" si="4"/>
+        <v>8.4869470753980375E-4</v>
+      </c>
+      <c r="E29">
+        <f>E19</f>
+        <v>2.4999999999999998E-5</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="6"/>
+        <v>1.823696011759192E-3</v>
+      </c>
+      <c r="G29">
+        <f>E19</f>
+        <v>2.4999999999999998E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="D30">
+        <f t="shared" si="4"/>
+        <v>1.3776818298921138E-3</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ref="E30:E32" si="8">E20</f>
+        <v>4.9999999999999996E-5</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="6"/>
+        <v>3.5732407149340023E-3</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ref="G30:G32" si="9">E20</f>
+        <v>4.9999999999999996E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="D31">
+        <f t="shared" si="4"/>
+        <v>3.1637059651675975E-3</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="8"/>
+        <v>9.9999999999999991E-5</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="6"/>
+        <v>5.8480900138014923E-3</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="9"/>
+        <v>9.9999999999999991E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="D32">
+        <f t="shared" si="4"/>
+        <v>5.5480348860433631E-3</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="8"/>
+        <v>1.9999999999999998E-4</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="6"/>
+        <v>1.446106502851722E-2</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="9"/>
         <v>1.9999999999999998E-4</v>
       </c>
     </row>
